--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H2">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I2">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J2">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N2">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O2">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P2">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q2">
-        <v>916.8342014432844</v>
+        <v>1522.405047312983</v>
       </c>
       <c r="R2">
-        <v>916.8342014432844</v>
+        <v>13701.64542581685</v>
       </c>
       <c r="S2">
-        <v>0.1880653817860758</v>
+        <v>0.1944186627330204</v>
       </c>
       <c r="T2">
-        <v>0.1880653817860758</v>
+        <v>0.1944186627330204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H3">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I3">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J3">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P3">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q3">
-        <v>22.9031711478536</v>
+        <v>24.17308157766056</v>
       </c>
       <c r="R3">
-        <v>22.9031711478536</v>
+        <v>217.557734198945</v>
       </c>
       <c r="S3">
-        <v>0.004698007141588265</v>
+        <v>0.003087022210521343</v>
       </c>
       <c r="T3">
-        <v>0.004698007141588265</v>
+        <v>0.003087022210521343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1881650818575</v>
+        <v>10.32689766666667</v>
       </c>
       <c r="H4">
-        <v>10.1881650818575</v>
+        <v>30.980693</v>
       </c>
       <c r="I4">
-        <v>0.2027910551156987</v>
+        <v>0.2044815006034941</v>
       </c>
       <c r="J4">
-        <v>0.2027910551156987</v>
+        <v>0.204481500603494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N4">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P4">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q4">
-        <v>48.88569727470818</v>
+        <v>54.62447288005478</v>
       </c>
       <c r="R4">
-        <v>48.88569727470818</v>
+        <v>491.620255920493</v>
       </c>
       <c r="S4">
-        <v>0.01002766618803459</v>
+        <v>0.006975815659952337</v>
       </c>
       <c r="T4">
-        <v>0.01002766618803459</v>
+        <v>0.006975815659952338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H5">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J5">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N5">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O5">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P5">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q5">
-        <v>2641.973884265853</v>
+        <v>4329.811705076522</v>
       </c>
       <c r="R5">
-        <v>2641.973884265853</v>
+        <v>38968.30534568871</v>
       </c>
       <c r="S5">
-        <v>0.5419342193290063</v>
+        <v>0.5529383938082122</v>
       </c>
       <c r="T5">
-        <v>0.5419342193290063</v>
+        <v>0.5529383938082122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H6">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J6">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P6">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q6">
-        <v>65.99838874274752</v>
+        <v>68.74970084174112</v>
       </c>
       <c r="R6">
-        <v>65.99838874274752</v>
+        <v>618.74730757567</v>
       </c>
       <c r="S6">
-        <v>0.01353790266182437</v>
+        <v>0.008779677211749692</v>
       </c>
       <c r="T6">
-        <v>0.01353790266182437</v>
+        <v>0.008779677211749692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.3584881895594</v>
+        <v>29.37031933333333</v>
       </c>
       <c r="H7">
-        <v>29.3584881895594</v>
+        <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="J7">
-        <v>0.5843681122878964</v>
+        <v>0.5815577111671272</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N7">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P7">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q7">
-        <v>140.8703289107119</v>
+        <v>155.3552929144176</v>
       </c>
       <c r="R7">
-        <v>140.8703289107119</v>
+        <v>1398.197636229758</v>
       </c>
       <c r="S7">
-        <v>0.02889599029706568</v>
+        <v>0.01983964014716529</v>
       </c>
       <c r="T7">
-        <v>0.02889599029706568</v>
+        <v>0.01983964014716529</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H8">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J8">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.99012030889941</v>
+        <v>147.4213356666667</v>
       </c>
       <c r="N8">
-        <v>89.99012030889941</v>
+        <v>442.264007</v>
       </c>
       <c r="O8">
-        <v>0.9273849957473647</v>
+        <v>0.9507885170992249</v>
       </c>
       <c r="P8">
-        <v>0.9273849957473647</v>
+        <v>0.950788517099225</v>
       </c>
       <c r="Q8">
-        <v>962.270030483915</v>
+        <v>1592.980210758022</v>
       </c>
       <c r="R8">
-        <v>962.270030483915</v>
+        <v>14336.8218968222</v>
       </c>
       <c r="S8">
-        <v>0.1973853946322825</v>
+        <v>0.2034314605579924</v>
       </c>
       <c r="T8">
-        <v>0.1973853946322825</v>
+        <v>0.2034314605579924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H9">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J9">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24801727924867</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>2.24801727924867</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="P9">
-        <v>0.02316673750184841</v>
+        <v>0.01509682881537204</v>
       </c>
       <c r="Q9">
-        <v>24.03819050808692</v>
+        <v>25.29368951726556</v>
       </c>
       <c r="R9">
-        <v>24.03819050808692</v>
+        <v>227.64320565539</v>
       </c>
       <c r="S9">
-        <v>0.004930827698435773</v>
+        <v>0.003230129393101</v>
       </c>
       <c r="T9">
-        <v>0.004930827698435773</v>
+        <v>0.003230129393100999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.6930630515976</v>
+        <v>10.80562866666667</v>
       </c>
       <c r="H10">
-        <v>10.6930630515976</v>
+        <v>32.416886</v>
       </c>
       <c r="I10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="J10">
-        <v>0.2128408325964049</v>
+        <v>0.2139607882293788</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.79828279988916</v>
+        <v>5.289533666666667</v>
       </c>
       <c r="N10">
-        <v>4.79828279988916</v>
+        <v>15.868601</v>
       </c>
       <c r="O10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540306</v>
       </c>
       <c r="P10">
-        <v>0.04944826675078687</v>
+        <v>0.03411465408540307</v>
       </c>
       <c r="Q10">
-        <v>51.30834051861105</v>
+        <v>57.15673662183178</v>
       </c>
       <c r="R10">
-        <v>51.30834051861105</v>
+        <v>514.410629596486</v>
       </c>
       <c r="S10">
-        <v>0.0105246102656866</v>
+        <v>0.007299198278285437</v>
       </c>
       <c r="T10">
-        <v>0.0105246102656866</v>
+        <v>0.007299198278285437</v>
       </c>
     </row>
   </sheetData>
